--- a/doc/20_基本設計/01_画面系/【CMS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CMS】基本設計-画面レイアウト仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a0b19d6ddffdcd/デスクトップ/tame-a/基本設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e354eabc4fa991d/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC14B5EE-CFDD-4706-9E5F-1A7B27009AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{FC14B5EE-CFDD-4706-9E5F-1A7B27009AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1944BC9-63DF-4E57-9C15-CC439D70A3B4}"/>
   <bookViews>
-    <workbookView xWindow="5748" yWindow="360" windowWidth="20100" windowHeight="11724" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-252" yWindow="528" windowWidth="23040" windowHeight="11724" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -715,31 +715,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,24 +807,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -901,11 +901,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6034,7 +6034,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>第二事業部　第一課</a:t>
+            <a:t>人事部</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0" i="0">
             <a:solidFill>
@@ -6365,9 +6365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:K35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="49"/>
@@ -6858,10 +6860,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -7439,87 +7441,87 @@
       <selection activeCell="C20" sqref="C20:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="71">
+      <c r="K3" s="77">
         <v>45027</v>
       </c>
-      <c r="L3" s="72"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="66"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="80"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16"/>
@@ -7597,8 +7599,8 @@
       <c r="C10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -7626,8 +7628,8 @@
       <c r="C12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="75"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -7653,15 +7655,15 @@
     <row r="14" spans="1:12">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="58"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -7699,15 +7701,15 @@
     <row r="17" spans="1:12">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
@@ -7715,17 +7717,17 @@
     <row r="18" spans="1:12">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79" t="s">
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="21"/>
@@ -7733,17 +7735,17 @@
     <row r="19" spans="1:12">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="54">
+      <c r="D19" s="56"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="50">
         <v>44997</v>
       </c>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="56"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="51"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="21"/>
@@ -7751,13 +7753,13 @@
     <row r="20" spans="1:12">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="51"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="21"/>
@@ -7765,13 +7767,13 @@
     <row r="21" spans="1:12">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="51"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="21"/>
@@ -7779,13 +7781,13 @@
     <row r="22" spans="1:12">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="51"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="21"/>
@@ -7793,13 +7795,13 @@
     <row r="23" spans="1:12">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="51"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="21"/>
@@ -7807,13 +7809,13 @@
     <row r="24" spans="1:12">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="51"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
@@ -7821,13 +7823,13 @@
     <row r="25" spans="1:12">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="21"/>
@@ -7835,13 +7837,13 @@
     <row r="26" spans="1:12">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="21"/>
@@ -7849,13 +7851,13 @@
     <row r="27" spans="1:12">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="51"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="21"/>
@@ -7863,13 +7865,13 @@
     <row r="28" spans="1:12">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="21"/>
@@ -7905,15 +7907,15 @@
     <row r="31" spans="1:12">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="75"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="21"/>
@@ -7921,19 +7923,19 @@
     <row r="32" spans="1:12">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="50" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="75"/>
-      <c r="H32" s="50" t="s">
+      <c r="G32" s="53"/>
+      <c r="H32" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="75"/>
+      <c r="I32" s="53"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="21"/>
@@ -7941,19 +7943,19 @@
     <row r="33" spans="1:12">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="54">
+      <c r="D33" s="56"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="50">
         <v>45027</v>
       </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="54">
+      <c r="G33" s="51"/>
+      <c r="H33" s="50">
         <v>45057</v>
       </c>
-      <c r="I33" s="56"/>
+      <c r="I33" s="51"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="21"/>
@@ -7961,13 +7963,13 @@
     <row r="34" spans="1:12">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="75"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="53"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="21"/>
@@ -7975,13 +7977,13 @@
     <row r="35" spans="1:12">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="75"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="53"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="21"/>
@@ -7989,13 +7991,13 @@
     <row r="36" spans="1:12">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="75"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="21"/>
@@ -8003,13 +8005,13 @@
     <row r="37" spans="1:12">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="75"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="21"/>
@@ -8017,13 +8019,13 @@
     <row r="38" spans="1:12">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="75"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="53"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="21"/>
@@ -8046,14 +8048,14 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="G40" s="57" t="s">
+      <c r="E40" s="59"/>
+      <c r="G40" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="58"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -8092,10 +8094,10 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="80" t="s">
+      <c r="E43" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="80"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -8637,35 +8639,22 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="C22:E22"/>
@@ -8682,22 +8671,35 @@
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8713,73 +8715,73 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="65" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="65" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="65" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="71" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="68"/>
+      <c r="L3" s="74"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="81"/>
@@ -9116,9 +9118,9 @@
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18">
@@ -9166,7 +9168,7 @@
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="86"/>
@@ -9202,34 +9204,34 @@
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="65" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="65" t="s">
+      <c r="G4" s="74"/>
+      <c r="H4" s="71" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="68"/>
-      <c r="K4" s="65" t="s">
+      <c r="J4" s="74"/>
+      <c r="K4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="67" t="s">
+      <c r="L4" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="68"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" ht="18">
       <c r="A5" s="10" t="s">
@@ -11155,13 +11157,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="10" width="9" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.149999999999999">
+    <row r="1" spans="1:12" ht="16.2">
       <c r="A1" s="94" t="s">
         <v>8</v>
       </c>
@@ -11656,18 +11658,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF200E42-3E46-45D9-B397-DEB71ADF111F}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="65" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="86"/>
@@ -11698,34 +11700,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="48"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="65" t="s">
+      <c r="D3" s="74"/>
+      <c r="E3" s="71" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="65" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
+      <c r="J3" s="74"/>
+      <c r="K3" s="71" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="68"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="48"/>
@@ -11970,2192 +11972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.15">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.6">
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="112"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.6">
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="112"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="116"/>
-      <c r="H27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="B1:M2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M4"/>
-  </mergeCells>
-  <phoneticPr fontId="15"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B4578-9A9F-42E9-A4DB-D3A41D7095F5}">
-  <dimension ref="A1:M59"/>
-  <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
-  <cols>
-    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="48"/>
-      <c r="B3" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="68"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="25.15">
+    <row r="11" spans="1:13" ht="25.2">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -16006,6 +13823,7 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
@@ -16014,7 +13832,2191 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
+  </mergeCells>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B4578-9A9F-42E9-A4DB-D3A41D7095F5}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="48"/>
+      <c r="B3" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="74"/>
+      <c r="E3" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="74"/>
+      <c r="K3" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="74"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="25.2">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.6">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15.6">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="112"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="112"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.6">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="112"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="112"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="116"/>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
     <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M4"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/20_基本設計/01_画面系/【CMS】基本設計-画面レイアウト仕様書.xlsx
+++ b/doc/20_基本設計/01_画面系/【CMS】基本設計-画面レイアウト仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e354eabc4fa991d/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaw\Desktop\workspace-teama\team\doc\20_基本設計\01_画面系\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{FC14B5EE-CFDD-4706-9E5F-1A7B27009AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1944BC9-63DF-4E57-9C15-CC439D70A3B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6230A82-EBAD-4DEE-9C23-BA919632642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-252" yWindow="528" windowWidth="23040" windowHeight="11724" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2146" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2143" uniqueCount="50">
   <si>
     <t>項番</t>
   </si>
@@ -176,9 +176,6 @@
     <t>不合格</t>
   </si>
   <si>
-    <t>証明書アップロード</t>
-  </si>
-  <si>
     <t>ファイル選択（合格のみ）</t>
   </si>
   <si>
@@ -193,6 +190,27 @@
   <si>
     <t>覃红</t>
   </si>
+  <si>
+    <t>画面修正</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>徐沢鍇</t>
+    <rPh sb="0" eb="3">
+      <t>ジョサワカイ</t>
+    </rPh>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>証明書アップロード</t>
+    <phoneticPr fontId="15"/>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +223,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,12 +238,16 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -249,6 +271,8 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <b/>
@@ -256,6 +280,8 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -275,7 +301,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -301,7 +327,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -634,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -715,49 +741,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,6 +815,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -906,9 +932,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2005,7 +2032,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
@@ -2086,14 +2115,17 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>0001</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2135,7 +2167,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:ln w="12700" cmpd="sng">
           <a:solidFill>
@@ -2216,7 +2250,17 @@
           </a:lvl9pPr>
         </a:lstStyle>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>新橋　田藤</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -3610,221 +3654,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>158115</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605791</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>213359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>550545</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C50088-29A3-4E8C-BCA5-DE7287E1C6DA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{43FD3CAC-FB36-48FE-9DEC-DFBBF2929637}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2876550" y="6337935"/>
-          <a:ext cx="3038475" cy="390525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>✙</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="テキスト ボックス 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2C6CB7-C6F7-98AD-ABA5-0B49AA3F0792}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B5C50088-29A3-4E8C-BCA5-DE7287E1C6DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7734300" y="3457575"/>
-          <a:ext cx="552450" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="12700" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>320041</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3842,8 +3681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3672841" y="5135879"/>
-          <a:ext cx="1440179" cy="327661"/>
+          <a:off x="5654041" y="4737734"/>
+          <a:ext cx="1470659" cy="337186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6369,7 +6208,7 @@
       <selection sqref="A1:K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" s="49"/>
@@ -6858,15 +6697,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B46BB5-2711-43FD-BCA3-211534675E03}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:5">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -6883,7 +6725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18">
+    <row r="2" spans="1:5">
       <c r="A2" s="39">
         <v>1</v>
       </c>
@@ -6900,24 +6742,24 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>7</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="43">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44">
+        <v>1.2</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18">
+        <v>48</v>
+      </c>
+      <c r="E3" s="117">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
@@ -6934,7 +6776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18">
+    <row r="5" spans="1:5">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -6951,7 +6793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18">
+    <row r="6" spans="1:5">
       <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
@@ -6968,7 +6810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18">
+    <row r="7" spans="1:5">
       <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
@@ -6985,7 +6827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18">
+    <row r="8" spans="1:5">
       <c r="A8" s="39" t="s">
         <v>7</v>
       </c>
@@ -7002,7 +6844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18">
+    <row r="9" spans="1:5">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -7019,7 +6861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18">
+    <row r="10" spans="1:5">
       <c r="A10" s="39" t="s">
         <v>7</v>
       </c>
@@ -7036,7 +6878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18">
+    <row r="11" spans="1:5">
       <c r="A11" s="39" t="s">
         <v>7</v>
       </c>
@@ -7053,7 +6895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
+    <row r="12" spans="1:5">
       <c r="A12" s="39" t="s">
         <v>7</v>
       </c>
@@ -7070,7 +6912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
+    <row r="13" spans="1:5">
       <c r="A13" s="39" t="s">
         <v>7</v>
       </c>
@@ -7087,7 +6929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
+    <row r="14" spans="1:5">
       <c r="A14" s="39" t="s">
         <v>7</v>
       </c>
@@ -7104,7 +6946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18">
+    <row r="15" spans="1:5">
       <c r="A15" s="39" t="s">
         <v>7</v>
       </c>
@@ -7121,7 +6963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18">
+    <row r="16" spans="1:5">
       <c r="A16" s="39" t="s">
         <v>7</v>
       </c>
@@ -7138,7 +6980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18">
+    <row r="17" spans="1:5">
       <c r="A17" s="39" t="s">
         <v>7</v>
       </c>
@@ -7155,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18">
+    <row r="18" spans="1:5">
       <c r="A18" s="39" t="s">
         <v>7</v>
       </c>
@@ -7172,7 +7014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18">
+    <row r="19" spans="1:5">
       <c r="A19" s="39" t="s">
         <v>7</v>
       </c>
@@ -7189,7 +7031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18">
+    <row r="20" spans="1:5">
       <c r="A20" s="39" t="s">
         <v>7</v>
       </c>
@@ -7206,7 +7048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18">
+    <row r="21" spans="1:5">
       <c r="A21" s="39" t="s">
         <v>7</v>
       </c>
@@ -7223,7 +7065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18">
+    <row r="22" spans="1:5">
       <c r="A22" s="39" t="s">
         <v>7</v>
       </c>
@@ -7240,7 +7082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18">
+    <row r="23" spans="1:5">
       <c r="A23" s="39" t="s">
         <v>7</v>
       </c>
@@ -7257,7 +7099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18">
+    <row r="24" spans="1:5">
       <c r="A24" s="39" t="s">
         <v>7</v>
       </c>
@@ -7274,7 +7116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18">
+    <row r="25" spans="1:5">
       <c r="A25" s="39" t="s">
         <v>7</v>
       </c>
@@ -7291,7 +7133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18">
+    <row r="26" spans="1:5">
       <c r="A26" s="39" t="s">
         <v>7</v>
       </c>
@@ -7308,7 +7150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18">
+    <row r="27" spans="1:5">
       <c r="A27" s="39" t="s">
         <v>7</v>
       </c>
@@ -7325,7 +7167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18">
+    <row r="28" spans="1:5">
       <c r="A28" s="39" t="s">
         <v>7</v>
       </c>
@@ -7342,7 +7184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18">
+    <row r="29" spans="1:5">
       <c r="A29" s="39" t="s">
         <v>7</v>
       </c>
@@ -7359,7 +7201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18">
+    <row r="30" spans="1:5">
       <c r="A30" s="39" t="s">
         <v>7</v>
       </c>
@@ -7376,7 +7218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="18">
+    <row r="31" spans="1:5">
       <c r="A31" s="39" t="s">
         <v>7</v>
       </c>
@@ -7393,7 +7235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18">
+    <row r="32" spans="1:5">
       <c r="A32" s="39" t="s">
         <v>7</v>
       </c>
@@ -7410,7 +7252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="18">
+    <row r="33" spans="1:5">
       <c r="A33" s="39" t="s">
         <v>7</v>
       </c>
@@ -7437,91 +7279,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A9FBCC1-9CCE-4B57-BB3E-B293B9E053BC}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="71" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="77">
+      <c r="K3" s="71">
         <v>45027</v>
       </c>
-      <c r="L3" s="78"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="72"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="80"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="16"/>
@@ -7599,8 +7441,8 @@
       <c r="C10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
@@ -7628,8 +7470,8 @@
       <c r="C12" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
@@ -7655,15 +7497,15 @@
     <row r="14" spans="1:12">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="59"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -7701,15 +7543,15 @@
     <row r="17" spans="1:12">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="64"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="21"/>
@@ -7717,17 +7559,17 @@
     <row r="18" spans="1:12">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62" t="s">
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="21"/>
@@ -7735,17 +7577,17 @@
     <row r="19" spans="1:12">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="50">
+      <c r="D19" s="51"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="54">
         <v>44997</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="51"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="21"/>
@@ -7753,13 +7595,13 @@
     <row r="20" spans="1:12">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="21"/>
@@ -7767,13 +7609,13 @@
     <row r="21" spans="1:12">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="51"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="21"/>
@@ -7781,13 +7623,13 @@
     <row r="22" spans="1:12">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="51"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="21"/>
@@ -7795,13 +7637,13 @@
     <row r="23" spans="1:12">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="51"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="21"/>
@@ -7809,13 +7651,13 @@
     <row r="24" spans="1:12">
       <c r="A24" s="19"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="51"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="21"/>
@@ -7823,13 +7665,13 @@
     <row r="25" spans="1:12">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="51"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="21"/>
@@ -7837,13 +7679,13 @@
     <row r="26" spans="1:12">
       <c r="A26" s="19"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="21"/>
@@ -7851,13 +7693,13 @@
     <row r="27" spans="1:12">
       <c r="A27" s="19"/>
       <c r="B27" s="20"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="51"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="21"/>
@@ -7865,13 +7707,13 @@
     <row r="28" spans="1:12">
       <c r="A28" s="19"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="21"/>
@@ -7907,15 +7749,15 @@
     <row r="31" spans="1:12">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="53"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="75"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="21"/>
@@ -7923,19 +7765,19 @@
     <row r="32" spans="1:12">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="52" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="52" t="s">
+      <c r="G32" s="75"/>
+      <c r="H32" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="53"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="21"/>
@@ -7943,19 +7785,19 @@
     <row r="33" spans="1:12">
       <c r="A33" s="19"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="52" t="s">
+      <c r="C33" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="50">
+      <c r="D33" s="51"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="54">
         <v>45027</v>
       </c>
-      <c r="G33" s="51"/>
-      <c r="H33" s="50">
+      <c r="G33" s="56"/>
+      <c r="H33" s="54">
         <v>45057</v>
       </c>
-      <c r="I33" s="51"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="21"/>
@@ -7963,13 +7805,13 @@
     <row r="34" spans="1:12">
       <c r="A34" s="19"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="53"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="21"/>
@@ -7977,13 +7819,13 @@
     <row r="35" spans="1:12">
       <c r="A35" s="19"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="53"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="75"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="21"/>
@@ -7991,13 +7833,13 @@
     <row r="36" spans="1:12">
       <c r="A36" s="19"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="53"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="75"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
       <c r="L36" s="21"/>
@@ -8005,13 +7847,13 @@
     <row r="37" spans="1:12">
       <c r="A37" s="19"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="75"/>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="21"/>
@@ -8019,13 +7861,13 @@
     <row r="38" spans="1:12">
       <c r="A38" s="19"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="53"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="75"/>
       <c r="J38" s="20"/>
       <c r="K38" s="20"/>
       <c r="L38" s="21"/>
@@ -8048,14 +7890,14 @@
       <c r="A40" s="19"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
-      <c r="D40" s="58" t="s">
+      <c r="D40" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="G40" s="58" t="s">
+      <c r="E40" s="58"/>
+      <c r="G40" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="59"/>
+      <c r="H40" s="58"/>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
       <c r="K40" s="20"/>
@@ -8094,10 +7936,10 @@
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
       <c r="D43" s="20"/>
-      <c r="E43" s="55" t="s">
+      <c r="E43" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="55"/>
+      <c r="F43" s="80"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
@@ -8639,6 +8481,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="D40:E40"/>
@@ -8655,51 +8542,6 @@
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8715,73 +8557,73 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" ht="18.600000000000001" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="71" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="71" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="65" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="74"/>
+      <c r="L3" s="68"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1">
       <c r="A4" s="81"/>
@@ -9115,15 +8957,15 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -9164,11 +9006,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="86"/>
@@ -9200,40 +9042,40 @@
       <c r="L3" s="89"/>
       <c r="M3" s="90"/>
     </row>
-    <row r="4" spans="1:13" ht="18">
+    <row r="4" spans="1:13">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="71" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="71" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="I4" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="71" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="73" t="s">
+      <c r="L4" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="74"/>
-    </row>
-    <row r="5" spans="1:13" ht="18">
+      <c r="M4" s="68"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
@@ -9250,7 +9092,7 @@
       <c r="L5" s="84"/>
       <c r="M5" s="85"/>
     </row>
-    <row r="6" spans="1:13" ht="18">
+    <row r="6" spans="1:13">
       <c r="A6" s="10" t="s">
         <v>7</v>
       </c>
@@ -9289,7 +9131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18">
+    <row r="7" spans="1:13">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -9330,7 +9172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18">
+    <row r="8" spans="1:13">
       <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
@@ -9369,7 +9211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18">
+    <row r="9" spans="1:13">
       <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
@@ -9410,7 +9252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18">
+    <row r="10" spans="1:13">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -9449,7 +9291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18">
+    <row r="11" spans="1:13">
       <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
@@ -9490,7 +9332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18">
+    <row r="12" spans="1:13">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -9531,7 +9373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18">
+    <row r="13" spans="1:13">
       <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
@@ -9572,7 +9414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18">
+    <row r="14" spans="1:13">
       <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18">
+    <row r="15" spans="1:13">
       <c r="A15" s="10" t="s">
         <v>7</v>
       </c>
@@ -9654,7 +9496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18">
+    <row r="16" spans="1:13">
       <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
@@ -9695,7 +9537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18">
+    <row r="17" spans="1:13">
       <c r="A17" s="10" t="s">
         <v>7</v>
       </c>
@@ -9736,7 +9578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="18">
+    <row r="18" spans="1:13">
       <c r="A18" s="10" t="s">
         <v>7</v>
       </c>
@@ -9777,7 +9619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="18">
+    <row r="19" spans="1:13">
       <c r="A19" s="10" t="s">
         <v>7</v>
       </c>
@@ -9818,7 +9660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18">
+    <row r="20" spans="1:13">
       <c r="A20" s="10" t="s">
         <v>7</v>
       </c>
@@ -9859,7 +9701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="18">
+    <row r="21" spans="1:13">
       <c r="A21" s="10" t="s">
         <v>7</v>
       </c>
@@ -9900,7 +9742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="18">
+    <row r="22" spans="1:13">
       <c r="A22" s="10" t="s">
         <v>7</v>
       </c>
@@ -9941,7 +9783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="18">
+    <row r="23" spans="1:13">
       <c r="A23" s="10" t="s">
         <v>7</v>
       </c>
@@ -9982,7 +9824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="18">
+    <row r="24" spans="1:13">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -10023,7 +9865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="18">
+    <row r="25" spans="1:13">
       <c r="A25" s="10" t="s">
         <v>7</v>
       </c>
@@ -10064,7 +9906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="18">
+    <row r="26" spans="1:13">
       <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
@@ -10105,7 +9947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18">
+    <row r="27" spans="1:13">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -10146,7 +9988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="18">
+    <row r="28" spans="1:13">
       <c r="A28" s="10" t="s">
         <v>7</v>
       </c>
@@ -10187,7 +10029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18">
+    <row r="29" spans="1:13">
       <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
@@ -10228,7 +10070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18">
+    <row r="30" spans="1:13">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
@@ -10269,7 +10111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18">
+    <row r="31" spans="1:13">
       <c r="A31" s="10" t="s">
         <v>7</v>
       </c>
@@ -10310,7 +10152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18">
+    <row r="32" spans="1:13">
       <c r="A32" s="10" t="s">
         <v>7</v>
       </c>
@@ -10351,7 +10193,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="18">
+    <row r="33" spans="1:13">
       <c r="A33" s="10" t="s">
         <v>7</v>
       </c>
@@ -10392,7 +10234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="18">
+    <row r="34" spans="1:13">
       <c r="A34" s="10" t="s">
         <v>7</v>
       </c>
@@ -10433,7 +10275,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="18">
+    <row r="35" spans="1:13">
       <c r="A35" s="10" t="s">
         <v>7</v>
       </c>
@@ -10474,7 +10316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="18">
+    <row r="36" spans="1:13">
       <c r="A36" s="10" t="s">
         <v>7</v>
       </c>
@@ -10515,7 +10357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="18">
+    <row r="37" spans="1:13">
       <c r="A37" s="10" t="s">
         <v>7</v>
       </c>
@@ -10556,7 +10398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="18">
+    <row r="38" spans="1:13">
       <c r="A38" s="10" t="s">
         <v>7</v>
       </c>
@@ -10597,7 +10439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="18">
+    <row r="39" spans="1:13">
       <c r="A39" s="10" t="s">
         <v>7</v>
       </c>
@@ -10638,7 +10480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="18">
+    <row r="40" spans="1:13">
       <c r="A40" s="10" t="s">
         <v>7</v>
       </c>
@@ -10679,7 +10521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18">
+    <row r="41" spans="1:13">
       <c r="A41" s="10" t="s">
         <v>7</v>
       </c>
@@ -10720,7 +10562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="18">
+    <row r="42" spans="1:13">
       <c r="A42" s="10" t="s">
         <v>7</v>
       </c>
@@ -10761,7 +10603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="18">
+    <row r="43" spans="1:13">
       <c r="A43" s="10" t="s">
         <v>7</v>
       </c>
@@ -10802,7 +10644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="18">
+    <row r="44" spans="1:13">
       <c r="A44" s="10" t="s">
         <v>7</v>
       </c>
@@ -10843,7 +10685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="18">
+    <row r="45" spans="1:13">
       <c r="A45" s="10" t="s">
         <v>7</v>
       </c>
@@ -10884,7 +10726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="18">
+    <row r="46" spans="1:13">
       <c r="A46" s="10" t="s">
         <v>7</v>
       </c>
@@ -10925,7 +10767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="18">
+    <row r="47" spans="1:13">
       <c r="A47" s="10" t="s">
         <v>7</v>
       </c>
@@ -10966,7 +10808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="18">
+    <row r="48" spans="1:13">
       <c r="A48" s="10" t="s">
         <v>7</v>
       </c>
@@ -11007,7 +10849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="18">
+    <row r="49" spans="1:13">
       <c r="A49" s="10" t="s">
         <v>7</v>
       </c>
@@ -11048,7 +10890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="18">
+    <row r="50" spans="1:13">
       <c r="A50" s="10" t="s">
         <v>7</v>
       </c>
@@ -11089,7 +10931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="18">
+    <row r="51" spans="1:13">
       <c r="A51" s="10" t="s">
         <v>7</v>
       </c>
@@ -11154,16 +10996,16 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="10" width="9" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="94" t="s">
         <v>8</v>
       </c>
@@ -11320,12 +11162,12 @@
     <row r="10" spans="1:12" ht="16.5" customHeight="1">
       <c r="A10" s="29"/>
       <c r="B10" s="92" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10" s="93"/>
       <c r="D10" s="30"/>
       <c r="E10" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F10" s="106"/>
       <c r="G10" s="93"/>
@@ -11366,11 +11208,11 @@
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="93"/>
       <c r="G13" s="92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H13" s="93"/>
       <c r="I13" s="30"/>
@@ -11658,18 +11500,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF200E42-3E46-45D9-B397-DEB71ADF111F}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="86"/>
@@ -11700,34 +11542,34 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="48"/>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="68"/>
+      <c r="E3" s="65" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="71" t="s">
+      <c r="J3" s="68"/>
+      <c r="K3" s="65" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="48"/>
@@ -11972,7 +11814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.2">
+    <row r="11" spans="1:13" ht="26.25">
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -12048,7 +11890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6">
+    <row r="13" spans="1:13">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
@@ -12192,7 +12034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="15.6">
+    <row r="17" spans="2:13">
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -12336,7 +12178,2192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="2:13" ht="15.6">
+    <row r="21" spans="2:13">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="112"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="112"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="116"/>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13">
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13">
+      <c r="B42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13">
+      <c r="B43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13">
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13">
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13">
+      <c r="B48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B4578-9A9F-42E9-A4DB-D3A41D7095F5}">
+  <dimension ref="A1:M59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="12" max="12" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="87"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="90"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="48"/>
+      <c r="B3" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="68"/>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="85"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="26.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="113" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="114" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="114"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="112"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="112"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
@@ -13823,7 +15850,6 @@
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="J18:J19"/>
@@ -13832,2191 +15858,7 @@
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="K22:K23"/>
-  </mergeCells>
-  <phoneticPr fontId="15"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75B4578-9A9F-42E9-A4DB-D3A41D7095F5}">
-  <dimension ref="A1:M59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="12" max="12" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="48"/>
-      <c r="B3" s="71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="74"/>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="85"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="25.2">
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="113" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="114" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="15.6">
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="K18" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="112"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J19" s="112"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.6">
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="112"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="112"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="116"/>
-      <c r="H27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13">
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13">
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13">
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13">
-      <c r="B40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13">
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13">
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13">
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13">
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13">
-      <c r="B46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13">
-      <c r="B47" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13">
-      <c r="B48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13">
-      <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
     <mergeCell ref="G26:G27"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:M2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:M4"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
